--- a/Structure/1 - Whole System/Linkstest.xlsx
+++ b/Structure/1 - Whole System/Linkstest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E8CB60CA-737D-4D2F-9370-65F41BFD0DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{39483DE9-A334-44EF-8495-700DD5D66941}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{E8CB60CA-737D-4D2F-9370-65F41BFD0DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5640311F-7C61-4307-A166-C99916990FA0}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
   <si>
     <t>Net Exports</t>
   </si>
@@ -77,25 +77,22 @@
     <t>Number</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>Total Generation&lt;/br&gt;100</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>Total Generation</t>
   </si>
 </sst>
 </file>
@@ -450,150 +447,143 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="26.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <f>VLOOKUP(C2,Working!$I:$K,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2">
-        <f>VLOOKUP(A2,Working!$I:$K,3,0)</f>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <f>VLOOKUP(C3,Working!$I:$K,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <f>VLOOKUP(A2,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f>VLOOKUP(A3,Working!$I:$K,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f>VLOOKUP(A3,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>28.008298755186722</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4">
+        <f>VLOOKUP(C4,Working!$I:$K,3,0)</f>
+        <v>3</v>
       </c>
       <c r="B4">
-        <f>VLOOKUP(A4,Working!$I:$K,3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>VLOOKUP(C5,Working!$I:$K,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <f>VLOOKUP(A4,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>71.991701244813271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>VLOOKUP(A5,Working!$I:$K,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <f>VLOOKUP(A5,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>7.8838174273858916</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="A6">
+        <f>VLOOKUP(C6,Working!$I:$K,3,0)</f>
+        <v>5</v>
       </c>
       <c r="B6">
-        <f>VLOOKUP(A6,Working!$I:$K,3,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <f>VLOOKUP(A6,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>8.7136929460580905</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="A7">
+        <f>VLOOKUP(C7,Working!$I:$K,3,0)</f>
+        <v>6</v>
       </c>
       <c r="B7">
-        <f>VLOOKUP(A7,Working!$I:$K,3,0)</f>
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>VLOOKUP(A7,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>5.2468879668049793</v>
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
+      <c r="A8">
+        <f>VLOOKUP(C8,Working!$I:$K,3,0)</f>
+        <v>7</v>
       </c>
       <c r="B8">
-        <f>VLOOKUP(A8,Working!$I:$K,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f>VLOOKUP(C9,Working!$I:$K,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
-        <f>VLOOKUP(A8,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>5.1431535269709547</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f>VLOOKUP(A9,Working!$I:$K,3,0)</f>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f>VLOOKUP(C10,Working!$I:$K,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <f>VLOOKUP(A9,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>78.215767634854771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f>VLOOKUP(A10,Working!$I:$K,3,0)</f>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f>VLOOKUP(C11,Working!$I:$K,3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
         <v>8</v>
-      </c>
-      <c r="C10">
-        <f>VLOOKUP(A10,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>52.904564315352701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <f>VLOOKUP(A11,Working!$I:$K,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <f>VLOOKUP(A11,Working!I:K,2,0)/MAX(Working!J:J)*100</f>
-        <v>61.61825726141079</v>
       </c>
     </row>
   </sheetData>
@@ -603,219 +593,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6BB7B-BF52-4A69-99C2-08ED42DD6D51}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C15"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>VLOOKUP(Working!A2,Working!$I:$K,3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>VLOOKUP(Working!B2,Working!$I:$K,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>Working!C2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>VLOOKUP(Working!A3,Working!$I:$K,3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <f>VLOOKUP(Working!B3,Working!$I:$K,3,0)</f>
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <f>Working!C3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>VLOOKUP(Working!A4,Working!$I:$K,3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <f>VLOOKUP(Working!B4,Working!$I:$K,3,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <f>Working!C4</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>VLOOKUP(Working!A5,Working!$I:$K,3,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>VLOOKUP(Working!B5,Working!$I:$K,3,0)</f>
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <f>Working!C5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>VLOOKUP(Working!A6,Working!$I:$K,3,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <f>VLOOKUP(Working!B6,Working!$I:$K,3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f>Working!C6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>VLOOKUP(Working!A7,Working!$I:$K,3,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <f>VLOOKUP(Working!B7,Working!$I:$K,3,0)</f>
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <f>Working!C7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>VLOOKUP(Working!A8,Working!$I:$K,3,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <f>VLOOKUP(Working!B8,Working!$I:$K,3,0)</f>
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <f>Working!C8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>VLOOKUP(Working!A9,Working!$I:$K,3,0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <f>VLOOKUP(Working!B9,Working!$I:$K,3,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <f>Working!C9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>VLOOKUP(Working!A10,Working!$I:$K,3,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <f>VLOOKUP(Working!B10,Working!$I:$K,3,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <f>Working!C10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>VLOOKUP(Working!A11,Working!$I:$K,3,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <f>VLOOKUP(Working!B11,Working!$I:$K,3,0)</f>
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <f>Working!C11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>VLOOKUP(Working!A12,Working!$I:$K,3,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <f>VLOOKUP(Working!B12,Working!$I:$K,3,0)</f>
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <f>Working!C12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>VLOOKUP(Working!A13,Working!$I:$K,3,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <f>VLOOKUP(Working!B13,Working!$I:$K,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <f>Working!C13</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>VLOOKUP(Working!A14,Working!$I:$K,3,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <f>VLOOKUP(Working!B14,Working!$I:$K,3,0)</f>
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <f>Working!C14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>VLOOKUP(Working!A15,Working!$I:$K,3,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <f>VLOOKUP(Working!B15,Working!$I:$K,3,0)</f>
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <f>Working!C15</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -828,7 +759,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,7 +790,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -871,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2">
         <v>48200</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>100</v>
@@ -885,7 +816,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -904,7 +835,7 @@
       </c>
       <c r="K3">
         <f>K2+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>28</v>
@@ -912,13 +843,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -931,7 +862,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K11" si="0">K3+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>72</v>
@@ -939,7 +870,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -958,7 +889,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -985,7 +916,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O6">
         <v>9</v>
@@ -1012,7 +943,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -1039,7 +970,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1066,7 +997,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9">
         <v>78</v>
@@ -1093,7 +1024,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10">
         <v>53</v>
@@ -1120,7 +1051,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11">
         <v>62</v>

--- a/Structure/1 - Whole System/Linkstest.xlsx
+++ b/Structure/1 - Whole System/Linkstest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{E8CB60CA-737D-4D2F-9370-65F41BFD0DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5640311F-7C61-4307-A166-C99916990FA0}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{E8CB60CA-737D-4D2F-9370-65F41BFD0DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76C41E67-9BF4-4870-9359-E679DE9A2525}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
   <si>
     <t>Net Exports</t>
   </si>
@@ -93,16 +93,64 @@
   </si>
   <si>
     <t>Total Generation</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>square</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>#045a8d</t>
+  </si>
+  <si>
+    <t>#0570b0</t>
+  </si>
+  <si>
+    <t>#3690c0</t>
+  </si>
+  <si>
+    <t>#d0d1e6</t>
+  </si>
+  <si>
+    <t>#a6bddb</t>
+  </si>
+  <si>
+    <t>Label ?</t>
+  </si>
+  <si>
+    <t>orange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,18 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C3D781-0017-4324-8D35-C09CBC6B0E53}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -465,8 +515,17 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>VLOOKUP(C2,Working!$I:$K,3,0)</f>
         <v>1</v>
@@ -477,8 +536,17 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>48236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>VLOOKUP(C3,Working!$I:$K,3,0)</f>
         <v>2</v>
@@ -489,8 +557,17 @@
       <c r="C3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-13517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>VLOOKUP(C4,Working!$I:$K,3,0)</f>
         <v>3</v>
@@ -501,8 +578,17 @@
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>34719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>VLOOKUP(C5,Working!$I:$K,3,0)</f>
         <v>4</v>
@@ -513,8 +599,17 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-3758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>VLOOKUP(C6,Working!$I:$K,3,0)</f>
         <v>5</v>
@@ -525,8 +620,17 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-4216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>VLOOKUP(C7,Working!$I:$K,3,0)</f>
         <v>6</v>
@@ -537,8 +641,17 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-2529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>VLOOKUP(C8,Working!$I:$K,3,0)</f>
         <v>7</v>
@@ -549,67 +662,110 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-2479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>VLOOKUP(C9,Working!$I:$K,3,0)</f>
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1">
+        <v>37733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>VLOOKUP(C10,Working!$I:$K,3,0)</f>
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>25495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>VLOOKUP(C11,Working!$I:$K,3,0)</f>
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1">
+        <v>29711</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6BB7B-BF52-4A69-99C2-08ED42DD6D51}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>VLOOKUP(Working!A2,Working!$I:$K,3,0)</f>
         <v>1</v>
@@ -618,8 +774,11 @@
         <f>VLOOKUP(Working!B2,Working!$I:$K,3,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>VLOOKUP(Working!A3,Working!$I:$K,3,0)</f>
         <v>1</v>
@@ -628,8 +787,11 @@
         <f>VLOOKUP(Working!B3,Working!$I:$K,3,0)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>VLOOKUP(Working!A4,Working!$I:$K,3,0)</f>
         <v>1</v>
@@ -638,8 +800,14 @@
         <f>VLOOKUP(Working!B4,Working!$I:$K,3,0)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>VLOOKUP(Working!A5,Working!$I:$K,3,0)</f>
         <v>1</v>
@@ -648,8 +816,11 @@
         <f>VLOOKUP(Working!B5,Working!$I:$K,3,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>VLOOKUP(Working!A6,Working!$I:$K,3,0)</f>
         <v>2</v>
@@ -658,8 +829,11 @@
         <f>VLOOKUP(Working!B6,Working!$I:$K,3,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>VLOOKUP(Working!A7,Working!$I:$K,3,0)</f>
         <v>3</v>
@@ -668,8 +842,11 @@
         <f>VLOOKUP(Working!B7,Working!$I:$K,3,0)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>VLOOKUP(Working!A8,Working!$I:$K,3,0)</f>
         <v>3</v>
@@ -678,8 +855,11 @@
         <f>VLOOKUP(Working!B8,Working!$I:$K,3,0)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>VLOOKUP(Working!A9,Working!$I:$K,3,0)</f>
         <v>4</v>
@@ -688,8 +868,11 @@
         <f>VLOOKUP(Working!B9,Working!$I:$K,3,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>VLOOKUP(Working!A10,Working!$I:$K,3,0)</f>
         <v>5</v>
@@ -698,8 +881,11 @@
         <f>VLOOKUP(Working!B10,Working!$I:$K,3,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>VLOOKUP(Working!A11,Working!$I:$K,3,0)</f>
         <v>5</v>
@@ -708,8 +894,11 @@
         <f>VLOOKUP(Working!B11,Working!$I:$K,3,0)</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>VLOOKUP(Working!A12,Working!$I:$K,3,0)</f>
         <v>6</v>
@@ -718,8 +907,11 @@
         <f>VLOOKUP(Working!B12,Working!$I:$K,3,0)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>VLOOKUP(Working!A13,Working!$I:$K,3,0)</f>
         <v>6</v>
@@ -728,8 +920,11 @@
         <f>VLOOKUP(Working!B13,Working!$I:$K,3,0)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>VLOOKUP(Working!A14,Working!$I:$K,3,0)</f>
         <v>7</v>
@@ -738,8 +933,11 @@
         <f>VLOOKUP(Working!B14,Working!$I:$K,3,0)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>VLOOKUP(Working!A15,Working!$I:$K,3,0)</f>
         <v>10</v>
@@ -748,8 +946,12 @@
         <f>VLOOKUP(Working!B15,Working!$I:$K,3,0)</f>
         <v>5</v>
       </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Structure/1 - Whole System/Linkstest.xlsx
+++ b/Structure/1 - Whole System/Linkstest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/1 - Whole System/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{E8CB60CA-737D-4D2F-9370-65F41BFD0DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{76C41E67-9BF4-4870-9359-E679DE9A2525}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{E8CB60CA-737D-4D2F-9370-65F41BFD0DE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D050123-91AE-496F-9505-8375BA00D74F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
+    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" xr2:uid="{CE00568F-584D-4B86-A73B-58650377D5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Net Exports</t>
   </si>
@@ -104,12 +104,6 @@
     <t>color</t>
   </si>
   <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
     <t>dot</t>
   </si>
   <si>
@@ -131,10 +125,19 @@
     <t>#a6bddb</t>
   </si>
   <si>
-    <t>Label ?</t>
-  </si>
-  <si>
-    <t>orange</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>#33a02c</t>
+  </si>
+  <si>
+    <t>#1f78b4</t>
+  </si>
+  <si>
+    <t>#ff7f00</t>
+  </si>
+  <si>
+    <t>#e31a1c</t>
   </si>
 </sst>
 </file>
@@ -493,19 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C3D781-0017-4324-8D35-C09CBC6B0E53}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
     <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -522,10 +526,13 @@
         <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>VLOOKUP(C2,Working!$I:$K,3,0)</f>
         <v>1</v>
@@ -537,16 +544,32 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
       </c>
       <c r="F2" s="1">
         <v>48236</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="1">
+        <f>F2</f>
+        <v>48236</v>
+      </c>
+      <c r="H2">
+        <f>G2/MAX($G$2:$G$11)</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>0+H2</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>I2/MAX($I$2:$I$11)*75</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>VLOOKUP(C3,Working!$I:$K,3,0)</f>
         <v>2</v>
@@ -561,13 +584,29 @@
         <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>-13517</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" s="1">
+        <f>-F3</f>
+        <v>13517</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H11" si="0">G3/MAX($G$2:$G$11)</f>
+        <v>0.28022638693092294</v>
+      </c>
+      <c r="I3">
+        <f>0+H3</f>
+        <v>0.28022638693092294</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="1">I3/MAX($I$2:$I$11)*100</f>
+        <v>28.022638693092293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>VLOOKUP(C4,Working!$I:$K,3,0)</f>
         <v>3</v>
@@ -579,16 +618,32 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="1">
         <v>34719</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="1">
+        <f>F4</f>
+        <v>34719</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.71977361306907706</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I11" si="2">0+H4</f>
+        <v>0.71977361306907706</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>71.97736130690771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>VLOOKUP(C5,Working!$I:$K,3,0)</f>
         <v>4</v>
@@ -603,13 +658,29 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1">
         <v>-3758</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G8" si="3">-F5</f>
+        <v>3758</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>7.7908615971473583E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>7.7908615971473583E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>7.7908615971473587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>VLOOKUP(C6,Working!$I:$K,3,0)</f>
         <v>5</v>
@@ -624,13 +695,29 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1">
         <v>-4216</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>4216</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.7403598971722368E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>8.7403598971722368E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>8.7403598971722367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>VLOOKUP(C7,Working!$I:$K,3,0)</f>
         <v>6</v>
@@ -645,13 +732,29 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" s="1">
         <v>-2529</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>2529</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5.2429720540675018E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>5.2429720540675018E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>5.2429720540675016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>VLOOKUP(C8,Working!$I:$K,3,0)</f>
         <v>7</v>
@@ -666,13 +769,29 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>-2479</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>2479</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>5.1393150344141304E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>5.1393150344141304E-2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>5.1393150344141301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>VLOOKUP(C9,Working!$I:$K,3,0)</f>
         <v>8</v>
@@ -684,16 +803,32 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1">
         <v>37733</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G9" s="1">
+        <f>F9</f>
+        <v>37733</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.782258064516129</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.782258064516129</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>78.225806451612897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>VLOOKUP(C10,Working!$I:$K,3,0)</f>
         <v>9</v>
@@ -705,16 +840,32 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1">
         <v>25495</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G10" s="1">
+        <f>F10</f>
+        <v>25495</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.52854714321253837</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.52854714321253837</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>52.854714321253837</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>VLOOKUP(C11,Working!$I:$K,3,0)</f>
         <v>10</v>
@@ -726,13 +877,29 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1">
         <v>29711</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11</f>
+        <v>29711</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.61595074218426071</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.61595074218426071</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>61.59507421842607</v>
       </c>
     </row>
   </sheetData>
@@ -745,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D6BB7B-BF52-4A69-99C2-08ED42DD6D51}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,7 +942,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -788,7 +958,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -801,10 +974,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
         <v>32</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -817,7 +990,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -830,7 +1006,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -845,6 +1024,9 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -858,6 +1040,9 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -869,7 +1054,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -882,7 +1070,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -895,7 +1086,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -908,7 +1102,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -921,7 +1118,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -934,7 +1134,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -947,7 +1150,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1167,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
